--- a/fixed_income_analysis/GHYG_predicted_results.xlsx
+++ b/fixed_income_analysis/GHYG_predicted_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyin1\OneDrive\uni-hers\Projects and Competitions\Citi 24\Citi-Comp-24\fixed_income_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B71C0-CD54-40AA-975C-46B4FEBFA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E7109-421D-4F56-8005-E9376909869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dates</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>FUDGE FILL</t>
   </si>
   <si>
     <t xml:space="preserve">Bull </t>
@@ -45,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -59,6 +56,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,10 +99,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,10 +428,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4792,94 +4790,136 @@
       <c r="A258" s="3">
         <v>45394</v>
       </c>
+      <c r="C258">
+        <v>43.883006062753033</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>45401</v>
       </c>
+      <c r="C259">
+        <v>44.041544708698027</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>45408</v>
       </c>
+      <c r="C260">
+        <v>44.177282672675958</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>45415</v>
       </c>
+      <c r="C261">
+        <v>44.303989760224738</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>45422</v>
       </c>
+      <c r="C262">
+        <v>44.422854616548832</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>45429</v>
       </c>
+      <c r="C263">
+        <v>44.534534269708601</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>45436</v>
       </c>
+      <c r="C264">
+        <v>44.639502442537321</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>45443</v>
       </c>
+      <c r="C265">
+        <v>44.738170881050003</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>45450</v>
       </c>
+      <c r="C266">
+        <v>44.830919610161281</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>45457</v>
       </c>
+      <c r="C267">
+        <v>44.918104231535587</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>45464</v>
       </c>
+      <c r="C268">
+        <v>45.000058643516873</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>45471</v>
       </c>
+      <c r="C269">
+        <v>45.077096629589271</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>45478</v>
       </c>
+      <c r="C270">
+        <v>45.149513130224953</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>45485</v>
       </c>
+      <c r="C271">
+        <v>45.217585388128057</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>45492</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C272">
+        <v>45.28157401330391</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>45499</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C273">
+        <v>45.341723981620547</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>45506</v>
       </c>
-      <c r="C274" t="s">
-        <v>3</v>
-      </c>
-      <c r="D274" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" t="s">
-        <v>3</v>
+      <c r="C274">
+        <v>45.382466162085457</v>
       </c>
     </row>
   </sheetData>
